--- a/data/full_data/lchsa.xlsx
+++ b/data/full_data/lchsa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>CCP</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Q4-2016</t>
+  </si>
+  <si>
+    <t>Q4-2015</t>
   </si>
   <si>
     <t>Q4-2017</t>
@@ -498,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC55"/>
+  <dimension ref="A1:AC61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2318,7 +2321,7 @@
         <v>30</v>
       </c>
       <c r="E26" t="n">
-        <v>12630000</v>
+        <v>12200000</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2327,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2100650000</v>
+        <v>937000000</v>
       </c>
       <c r="I26" t="n">
-        <v>2100650000</v>
+        <v>937000000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2339,46 +2342,46 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>2100650000</v>
+        <v>937000000</v>
       </c>
       <c r="M26" t="n">
-        <v>2100650000</v>
+        <v>937000000</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1075290000</v>
+        <v>-647600000</v>
       </c>
       <c r="P26" t="n">
-        <v>762830000</v>
+        <v>-322300000</v>
       </c>
       <c r="Q26" t="n">
-        <v>3471550000</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4536530000</v>
+        <v>3444000000</v>
       </c>
       <c r="S26" t="n">
-        <v>25467000000</v>
+        <v>21288400000</v>
       </c>
       <c r="T26" t="n">
-        <v>24921910000</v>
+        <v>20929500000</v>
       </c>
       <c r="U26" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="Y26" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z26" t="s"/>
       <c r="AA26" t="s"/>
@@ -2399,7 +2402,7 @@
         <v>31</v>
       </c>
       <c r="E27" t="n">
-        <v>8830000</v>
+        <v>11700000</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2408,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1468200000</v>
+        <v>900700000</v>
       </c>
       <c r="I27" t="n">
-        <v>1468200000</v>
+        <v>900700000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2420,46 +2423,46 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1468200000</v>
+        <v>900700000</v>
       </c>
       <c r="M27" t="n">
-        <v>1468200000</v>
+        <v>900700000</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>329850000</v>
+        <v>-715800000</v>
       </c>
       <c r="P27" t="n">
-        <v>212260000</v>
+        <v>-156300000</v>
       </c>
       <c r="Q27" t="n">
-        <v>7950000</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>15627140000</v>
+        <v>17747600000</v>
       </c>
       <c r="S27" t="n">
-        <v>25467000000</v>
+        <v>21288400000</v>
       </c>
       <c r="T27" t="n">
-        <v>24921910000</v>
+        <v>20929500000</v>
       </c>
       <c r="U27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V27" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W27" t="n">
         <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z27" t="s"/>
       <c r="AA27" t="s"/>
@@ -2489,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1048660000</v>
+        <v>345900000</v>
       </c>
       <c r="I28" t="n">
-        <v>1048660000</v>
+        <v>345900000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2501,55 +2504,55 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1048660000</v>
+        <v>345900000</v>
       </c>
       <c r="M28" t="n">
-        <v>1048660000</v>
+        <v>345900000</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>358240000</v>
+        <v>-216100000</v>
       </c>
       <c r="P28" t="n">
-        <v>253620000</v>
+        <v>-84300000</v>
       </c>
       <c r="Q28" t="n">
-        <v>14890000</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2016400000</v>
+        <v>738100000</v>
       </c>
       <c r="S28" t="n">
-        <v>25467000000</v>
+        <v>21288400000</v>
       </c>
       <c r="T28" t="n">
-        <v>24921910000</v>
+        <v>20929500000</v>
       </c>
       <c r="U28" t="n">
         <v>11</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>3316381085</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>121314497809</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -2569,7 +2572,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="n">
-        <v>840000</v>
+        <v>1000000</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2578,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>140030000</v>
+        <v>77300000</v>
       </c>
       <c r="I29" t="n">
-        <v>140030000</v>
+        <v>77300000</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2590,37 +2593,37 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>140030000</v>
+        <v>77300000</v>
       </c>
       <c r="M29" t="n">
-        <v>140030000</v>
+        <v>77300000</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>138400000</v>
+        <v>-66099999.99999999</v>
       </c>
       <c r="P29" t="n">
-        <v>55000000</v>
+        <v>-11700000</v>
       </c>
       <c r="Q29" t="n">
-        <v>3650000</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4320000</v>
+        <v>106000000</v>
       </c>
       <c r="S29" t="n">
-        <v>25467000000</v>
+        <v>21288400000</v>
       </c>
       <c r="T29" t="n">
-        <v>24921910000</v>
+        <v>20929500000</v>
       </c>
       <c r="U29" t="n">
         <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2660,10 +2663,10 @@
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>25467000000</v>
+        <v>21288400000</v>
       </c>
       <c r="T30" t="n">
-        <v>24921910000</v>
+        <v>20929500000</v>
       </c>
       <c r="U30" t="s"/>
       <c r="V30" t="s"/>
@@ -2678,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>670837279</v>
+        <v>467866089</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -2709,10 +2712,10 @@
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>25467000000</v>
+        <v>21288400000</v>
       </c>
       <c r="T31" t="n">
-        <v>24921910000</v>
+        <v>20929500000</v>
       </c>
       <c r="U31" t="s"/>
       <c r="V31" t="s"/>
@@ -2746,7 +2749,7 @@
         <v>30</v>
       </c>
       <c r="E32" t="n">
-        <v>11490000</v>
+        <v>12630000</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -2755,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2100510000</v>
+        <v>2100650000</v>
       </c>
       <c r="I32" t="n">
-        <v>2100510000</v>
+        <v>2100650000</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2767,43 +2770,43 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>2100510000</v>
+        <v>2100650000</v>
       </c>
       <c r="M32" t="n">
-        <v>2100510000</v>
+        <v>2100650000</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1099800000</v>
+        <v>1075290000</v>
       </c>
       <c r="P32" t="n">
-        <v>833770000</v>
+        <v>762830000</v>
       </c>
       <c r="Q32" t="n">
-        <v>3735210000</v>
+        <v>3471550000</v>
       </c>
       <c r="R32" t="n">
-        <v>5081450000</v>
+        <v>4536530000</v>
       </c>
       <c r="S32" t="n">
-        <v>33679220000</v>
+        <v>25467000000</v>
       </c>
       <c r="T32" t="n">
-        <v>33079790000</v>
+        <v>24921910000</v>
       </c>
       <c r="U32" t="n">
         <v>46</v>
       </c>
       <c r="V32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Y32" t="n">
         <v>46</v>
@@ -2827,7 +2830,7 @@
         <v>31</v>
       </c>
       <c r="E33" t="n">
-        <v>6910000</v>
+        <v>8830000</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2836,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1262520000</v>
+        <v>1468200000</v>
       </c>
       <c r="I33" t="n">
-        <v>1262520000</v>
+        <v>1468200000</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2848,37 +2851,37 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1262520000</v>
+        <v>1468200000</v>
       </c>
       <c r="M33" t="n">
-        <v>1262520000</v>
+        <v>1468200000</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>396590000.0000001</v>
+        <v>329850000</v>
       </c>
       <c r="P33" t="n">
-        <v>179640000</v>
+        <v>212260000</v>
       </c>
       <c r="Q33" t="n">
-        <v>91700000</v>
+        <v>7950000</v>
       </c>
       <c r="R33" t="n">
-        <v>18283680000</v>
+        <v>15627140000</v>
       </c>
       <c r="S33" t="n">
-        <v>33679220000</v>
+        <v>25467000000</v>
       </c>
       <c r="T33" t="n">
-        <v>33079790000</v>
+        <v>24921910000</v>
       </c>
       <c r="U33" t="n">
         <v>13</v>
       </c>
       <c r="V33" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W33" t="n">
         <v>1</v>
@@ -2917,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1410970000</v>
+        <v>1048660000</v>
       </c>
       <c r="I34" t="n">
-        <v>1410970000</v>
+        <v>1048660000</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2929,55 +2932,55 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1410970000</v>
+        <v>1048660000</v>
       </c>
       <c r="M34" t="n">
-        <v>1410970000</v>
+        <v>1048660000</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>455770000</v>
+        <v>358240000</v>
       </c>
       <c r="P34" t="n">
-        <v>272110000</v>
+        <v>253620000</v>
       </c>
       <c r="Q34" t="n">
-        <v>14860000</v>
+        <v>14890000</v>
       </c>
       <c r="R34" t="n">
-        <v>2304140000</v>
+        <v>2016400000</v>
       </c>
       <c r="S34" t="n">
-        <v>33679220000</v>
+        <v>25467000000</v>
       </c>
       <c r="T34" t="n">
-        <v>33079790000</v>
+        <v>24921910000</v>
       </c>
       <c r="U34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z34" t="n">
-        <v>5178080001</v>
+        <v>3316381085</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>135684265272</v>
+        <v>121314497809</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
@@ -2997,7 +3000,7 @@
         <v>33</v>
       </c>
       <c r="E35" t="n">
-        <v>880000</v>
+        <v>840000</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3006,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>161680000</v>
+        <v>140030000</v>
       </c>
       <c r="I35" t="n">
-        <v>161680000</v>
+        <v>140030000</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3018,37 +3021,37 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>161680000</v>
+        <v>140030000</v>
       </c>
       <c r="M35" t="n">
-        <v>161680000</v>
+        <v>140030000</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>104460000</v>
+        <v>138400000</v>
       </c>
       <c r="P35" t="n">
-        <v>16970000</v>
+        <v>55000000</v>
       </c>
       <c r="Q35" t="n">
-        <v>339430000</v>
+        <v>3650000</v>
       </c>
       <c r="R35" t="n">
-        <v>372490000</v>
+        <v>4320000</v>
       </c>
       <c r="S35" t="n">
-        <v>33679220000</v>
+        <v>25467000000</v>
       </c>
       <c r="T35" t="n">
-        <v>33079790000</v>
+        <v>24921910000</v>
       </c>
       <c r="U35" t="n">
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3088,10 +3091,10 @@
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>33679220000</v>
+        <v>25467000000</v>
       </c>
       <c r="T36" t="n">
-        <v>33079790000</v>
+        <v>24921910000</v>
       </c>
       <c r="U36" t="s"/>
       <c r="V36" t="s"/>
@@ -3105,7 +3108,9 @@
       <c r="AB36" t="n">
         <v>0</v>
       </c>
-      <c r="AC36" t="s"/>
+      <c r="AC36" t="n">
+        <v>670837279</v>
+      </c>
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="1" t="n">
@@ -3135,10 +3140,10 @@
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>33679220000</v>
+        <v>25467000000</v>
       </c>
       <c r="T37" t="n">
-        <v>33079790000</v>
+        <v>24921910000</v>
       </c>
       <c r="U37" t="s"/>
       <c r="V37" t="s"/>
@@ -3172,7 +3177,7 @@
         <v>30</v>
       </c>
       <c r="E38" t="n">
-        <v>13140000</v>
+        <v>11490000</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3181,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2100560000</v>
+        <v>2100510000</v>
       </c>
       <c r="I38" t="n">
-        <v>2100560000</v>
+        <v>2100510000</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3193,46 +3198,46 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>2100560000</v>
+        <v>2100510000</v>
       </c>
       <c r="M38" t="n">
-        <v>2100560000</v>
+        <v>2100510000</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1075290000</v>
+        <v>1099800000</v>
       </c>
       <c r="P38" t="n">
-        <v>626520000</v>
+        <v>833770000</v>
       </c>
       <c r="Q38" t="n">
-        <v>3362370000</v>
+        <v>3735210000</v>
       </c>
       <c r="R38" t="n">
-        <v>4806620000</v>
+        <v>5081450000</v>
       </c>
       <c r="S38" t="n">
-        <v>25829170000</v>
+        <v>33679220000</v>
       </c>
       <c r="T38" t="n">
-        <v>25324150000</v>
+        <v>33079790000</v>
       </c>
       <c r="U38" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="Y38" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z38" t="s"/>
       <c r="AA38" t="s"/>
@@ -3253,7 +3258,7 @@
         <v>31</v>
       </c>
       <c r="E39" t="n">
-        <v>10220000</v>
+        <v>6910000</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3262,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1633380000</v>
+        <v>1262520000</v>
       </c>
       <c r="I39" t="n">
-        <v>1633380000</v>
+        <v>1262520000</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3274,37 +3279,37 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1633380000</v>
+        <v>1262520000</v>
       </c>
       <c r="M39" t="n">
-        <v>1633380000</v>
+        <v>1262520000</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>329850000</v>
+        <v>396590000.0000001</v>
       </c>
       <c r="P39" t="n">
-        <v>224160000</v>
+        <v>179640000</v>
       </c>
       <c r="Q39" t="n">
-        <v>7800000</v>
+        <v>91700000</v>
       </c>
       <c r="R39" t="n">
-        <v>16078760000</v>
+        <v>18283680000</v>
       </c>
       <c r="S39" t="n">
-        <v>25829170000</v>
+        <v>33679220000</v>
       </c>
       <c r="T39" t="n">
-        <v>25324150000</v>
+        <v>33079790000</v>
       </c>
       <c r="U39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V39" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W39" t="n">
         <v>1</v>
@@ -3313,7 +3318,7 @@
         <v>2</v>
       </c>
       <c r="Y39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z39" t="s"/>
       <c r="AA39" t="s"/>
@@ -3343,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>729450000</v>
+        <v>1410970000</v>
       </c>
       <c r="I40" t="n">
-        <v>729450000</v>
+        <v>1410970000</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3355,55 +3360,55 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>729450000</v>
+        <v>1410970000</v>
       </c>
       <c r="M40" t="n">
-        <v>729450000</v>
+        <v>1410970000</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>351940000</v>
+        <v>455770000</v>
       </c>
       <c r="P40" t="n">
-        <v>237370000</v>
+        <v>272110000</v>
       </c>
       <c r="Q40" t="n">
-        <v>10850000</v>
+        <v>14860000</v>
       </c>
       <c r="R40" t="n">
-        <v>2018540000</v>
+        <v>2304140000</v>
       </c>
       <c r="S40" t="n">
-        <v>25829170000</v>
+        <v>33679220000</v>
       </c>
       <c r="T40" t="n">
-        <v>25324150000</v>
+        <v>33079790000</v>
       </c>
       <c r="U40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Y40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z40" t="n">
-        <v>4602014116</v>
+        <v>5178080001</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>115003389794</v>
+        <v>135684265272</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
@@ -3423,7 +3428,7 @@
         <v>33</v>
       </c>
       <c r="E41" t="n">
-        <v>680000</v>
+        <v>880000</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3432,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>109320000</v>
+        <v>161680000</v>
       </c>
       <c r="I41" t="n">
-        <v>109320000</v>
+        <v>161680000</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3444,37 +3449,37 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>109320000</v>
+        <v>161680000</v>
       </c>
       <c r="M41" t="n">
-        <v>109320000</v>
+        <v>161680000</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>157000000</v>
+        <v>104460000</v>
       </c>
       <c r="P41" t="n">
-        <v>65900000.00000001</v>
+        <v>16970000</v>
       </c>
       <c r="Q41" t="n">
-        <v>400020000</v>
+        <v>339430000</v>
       </c>
       <c r="R41" t="n">
-        <v>475330000</v>
+        <v>372490000</v>
       </c>
       <c r="S41" t="n">
-        <v>25829170000</v>
+        <v>33679220000</v>
       </c>
       <c r="T41" t="n">
-        <v>25324150000</v>
+        <v>33079790000</v>
       </c>
       <c r="U41" t="n">
         <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3514,10 +3519,10 @@
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
       <c r="S42" t="n">
-        <v>25829170000</v>
+        <v>33679220000</v>
       </c>
       <c r="T42" t="n">
-        <v>25324150000</v>
+        <v>33079790000</v>
       </c>
       <c r="U42" t="s"/>
       <c r="V42" t="s"/>
@@ -3532,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>1653580286</v>
+        <v>913030409</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -3563,10 +3568,10 @@
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>25829170000</v>
+        <v>33679220000</v>
       </c>
       <c r="T43" t="n">
-        <v>25324150000</v>
+        <v>33079790000</v>
       </c>
       <c r="U43" t="s"/>
       <c r="V43" t="s"/>
@@ -3600,7 +3605,7 @@
         <v>30</v>
       </c>
       <c r="E44" t="n">
-        <v>11990000</v>
+        <v>13140000</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3609,10 +3614,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1750880000</v>
+        <v>2100560000</v>
       </c>
       <c r="I44" t="n">
-        <v>1750880000</v>
+        <v>2100560000</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -3621,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1750880000</v>
+        <v>2100560000</v>
       </c>
       <c r="M44" t="n">
-        <v>1750880000</v>
+        <v>2100560000</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -3633,25 +3638,25 @@
         <v>1075290000</v>
       </c>
       <c r="P44" t="n">
-        <v>504060000</v>
+        <v>626520000</v>
       </c>
       <c r="Q44" t="n">
-        <v>3524870000</v>
+        <v>3362370000</v>
       </c>
       <c r="R44" t="n">
-        <v>4702290000</v>
+        <v>4806620000</v>
       </c>
       <c r="S44" t="n">
-        <v>26357840000</v>
+        <v>25829170000</v>
       </c>
       <c r="T44" t="n">
-        <v>25946880000</v>
+        <v>25324150000</v>
       </c>
       <c r="U44" t="n">
         <v>45</v>
       </c>
       <c r="V44" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -3681,7 +3686,7 @@
         <v>31</v>
       </c>
       <c r="E45" t="n">
-        <v>11080000</v>
+        <v>10220000</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -3690,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1617410000</v>
+        <v>1633380000</v>
       </c>
       <c r="I45" t="n">
-        <v>1617410000</v>
+        <v>1633380000</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -3702,31 +3707,31 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1617410000</v>
+        <v>1633380000</v>
       </c>
       <c r="M45" t="n">
-        <v>1617410000</v>
+        <v>1633380000</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>317740000</v>
+        <v>329850000</v>
       </c>
       <c r="P45" t="n">
-        <v>229490000</v>
+        <v>224160000</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>7800000</v>
       </c>
       <c r="R45" t="n">
-        <v>16151460000</v>
+        <v>16078760000</v>
       </c>
       <c r="S45" t="n">
-        <v>26357840000</v>
+        <v>25829170000</v>
       </c>
       <c r="T45" t="n">
-        <v>25946880000</v>
+        <v>25324150000</v>
       </c>
       <c r="U45" t="n">
         <v>14</v>
@@ -3771,10 +3776,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>703030000</v>
+        <v>729450000</v>
       </c>
       <c r="I46" t="n">
-        <v>703030000</v>
+        <v>729450000</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -3783,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>703030000</v>
+        <v>729450000</v>
       </c>
       <c r="M46" t="n">
-        <v>703030000</v>
+        <v>729450000</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3795,19 +3800,19 @@
         <v>351940000</v>
       </c>
       <c r="P46" t="n">
-        <v>223460000</v>
+        <v>237370000</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>10850000</v>
       </c>
       <c r="R46" t="n">
-        <v>1827490000</v>
+        <v>2018540000</v>
       </c>
       <c r="S46" t="n">
-        <v>26357840000</v>
+        <v>25829170000</v>
       </c>
       <c r="T46" t="n">
-        <v>25946880000</v>
+        <v>25324150000</v>
       </c>
       <c r="U46" t="n">
         <v>11</v>
@@ -3819,19 +3824,19 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y46" t="n">
         <v>11</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>4602014116</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>115003389794</v>
       </c>
       <c r="AC46" t="n">
         <v>0</v>
@@ -3851,7 +3856,7 @@
         <v>33</v>
       </c>
       <c r="E47" t="n">
-        <v>720000</v>
+        <v>680000</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -3860,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>104460000</v>
+        <v>109320000</v>
       </c>
       <c r="I47" t="n">
-        <v>104460000</v>
+        <v>109320000</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -3872,10 +3877,10 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>104460000</v>
+        <v>109320000</v>
       </c>
       <c r="M47" t="n">
-        <v>104460000</v>
+        <v>109320000</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -3884,19 +3889,19 @@
         <v>157000000</v>
       </c>
       <c r="P47" t="n">
-        <v>72200000</v>
+        <v>65900000.00000001</v>
       </c>
       <c r="Q47" t="n">
-        <v>392880000</v>
+        <v>400020000</v>
       </c>
       <c r="R47" t="n">
-        <v>457200000</v>
+        <v>475330000</v>
       </c>
       <c r="S47" t="n">
-        <v>26357840000</v>
+        <v>25829170000</v>
       </c>
       <c r="T47" t="n">
-        <v>25946880000</v>
+        <v>25324150000</v>
       </c>
       <c r="U47" t="n">
         <v>1</v>
@@ -3942,10 +3947,10 @@
       <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>26357840000</v>
+        <v>25829170000</v>
       </c>
       <c r="T48" t="n">
-        <v>25946880000</v>
+        <v>25324150000</v>
       </c>
       <c r="U48" t="s"/>
       <c r="V48" t="s"/>
@@ -3955,14 +3960,12 @@
       <c r="Z48" t="n">
         <v>0</v>
       </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
+      <c r="AA48" t="s"/>
       <c r="AB48" t="n">
         <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1653580286</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -3993,10 +3996,10 @@
       <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
       <c r="S49" t="n">
-        <v>26357840000</v>
+        <v>25829170000</v>
       </c>
       <c r="T49" t="n">
-        <v>25946880000</v>
+        <v>25324150000</v>
       </c>
       <c r="U49" t="s"/>
       <c r="V49" t="s"/>
@@ -4030,7 +4033,7 @@
         <v>30</v>
       </c>
       <c r="E50" t="n">
-        <v>13020000</v>
+        <v>11990000</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -4039,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>2100500000</v>
+        <v>1750880000</v>
       </c>
       <c r="I50" t="n">
-        <v>2100500000</v>
+        <v>1750880000</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -4051,10 +4054,10 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>2100500000</v>
+        <v>1750880000</v>
       </c>
       <c r="M50" t="n">
-        <v>2100500000</v>
+        <v>1750880000</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -4063,34 +4066,34 @@
         <v>1075290000</v>
       </c>
       <c r="P50" t="n">
-        <v>810540000</v>
+        <v>504060000</v>
       </c>
       <c r="Q50" t="n">
-        <v>3215640000</v>
+        <v>3524870000</v>
       </c>
       <c r="R50" t="n">
-        <v>4257150000</v>
+        <v>4702290000</v>
       </c>
       <c r="S50" t="n">
-        <v>24818870000</v>
+        <v>26357840000</v>
       </c>
       <c r="T50" t="n">
-        <v>24411990000</v>
+        <v>25946880000</v>
       </c>
       <c r="U50" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V50" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="Y50" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s"/>
       <c r="AA50" t="s"/>
@@ -4111,7 +4114,7 @@
         <v>31</v>
       </c>
       <c r="E51" t="n">
-        <v>8180000</v>
+        <v>11080000</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -4120,10 +4123,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1320170000</v>
+        <v>1617410000</v>
       </c>
       <c r="I51" t="n">
-        <v>1320170000</v>
+        <v>1617410000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -4132,34 +4135,34 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1320170000</v>
+        <v>1617410000</v>
       </c>
       <c r="M51" t="n">
-        <v>1320170000</v>
+        <v>1617410000</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>329850000</v>
+        <v>317740000</v>
       </c>
       <c r="P51" t="n">
-        <v>158590000</v>
+        <v>229490000</v>
       </c>
       <c r="Q51" t="n">
-        <v>109350000</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>16141050000</v>
+        <v>16151460000</v>
       </c>
       <c r="S51" t="n">
-        <v>24818870000</v>
+        <v>26357840000</v>
       </c>
       <c r="T51" t="n">
-        <v>24411990000</v>
+        <v>25946880000</v>
       </c>
       <c r="U51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V51" t="n">
         <v>44</v>
@@ -4171,7 +4174,7 @@
         <v>2</v>
       </c>
       <c r="Y51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z51" t="s"/>
       <c r="AA51" t="s"/>
@@ -4201,10 +4204,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1018300000</v>
+        <v>703030000</v>
       </c>
       <c r="I52" t="n">
-        <v>1018300000</v>
+        <v>703030000</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -4213,31 +4216,31 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1018300000</v>
+        <v>703030000</v>
       </c>
       <c r="M52" t="n">
-        <v>1018300000</v>
+        <v>703030000</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>455770000</v>
+        <v>351940000</v>
       </c>
       <c r="P52" t="n">
-        <v>288880000</v>
+        <v>223460000</v>
       </c>
       <c r="Q52" t="n">
-        <v>20050000</v>
+        <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>2300080000</v>
+        <v>1827490000</v>
       </c>
       <c r="S52" t="n">
-        <v>24818870000</v>
+        <v>26357840000</v>
       </c>
       <c r="T52" t="n">
-        <v>24411990000</v>
+        <v>25946880000</v>
       </c>
       <c r="U52" t="n">
         <v>11</v>
@@ -4249,19 +4252,19 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Y52" t="n">
         <v>11</v>
       </c>
       <c r="Z52" t="n">
-        <v>5135990000</v>
+        <v>0</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>136370470000</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
         <v>0</v>
@@ -4281,7 +4284,7 @@
         <v>33</v>
       </c>
       <c r="E53" t="n">
-        <v>1090000</v>
+        <v>720000</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -4290,10 +4293,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>175270000</v>
+        <v>104460000</v>
       </c>
       <c r="I53" t="n">
-        <v>175270000</v>
+        <v>104460000</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -4302,31 +4305,31 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>175270000</v>
+        <v>104460000</v>
       </c>
       <c r="M53" t="n">
-        <v>175270000</v>
+        <v>104460000</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>148760000</v>
+        <v>157000000</v>
       </c>
       <c r="P53" t="n">
-        <v>57280000</v>
+        <v>72200000</v>
       </c>
       <c r="Q53" t="n">
-        <v>338150000.0000001</v>
+        <v>392880000</v>
       </c>
       <c r="R53" t="n">
-        <v>403890000</v>
+        <v>457200000</v>
       </c>
       <c r="S53" t="n">
-        <v>24818870000</v>
+        <v>26357840000</v>
       </c>
       <c r="T53" t="n">
-        <v>24411990000</v>
+        <v>25946880000</v>
       </c>
       <c r="U53" t="n">
         <v>1</v>
@@ -4372,10 +4375,10 @@
       <c r="Q54" t="s"/>
       <c r="R54" t="s"/>
       <c r="S54" t="n">
-        <v>24818870000</v>
+        <v>26357840000</v>
       </c>
       <c r="T54" t="n">
-        <v>24411990000</v>
+        <v>25946880000</v>
       </c>
       <c r="U54" t="s"/>
       <c r="V54" t="s"/>
@@ -4385,11 +4388,15 @@
       <c r="Z54" t="n">
         <v>0</v>
       </c>
-      <c r="AA54" t="s"/>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
       <c r="AB54" t="n">
         <v>0</v>
       </c>
-      <c r="AC54" t="s"/>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:29">
       <c r="A55" s="1" t="n">
@@ -4419,10 +4426,10 @@
       <c r="Q55" t="s"/>
       <c r="R55" t="s"/>
       <c r="S55" t="n">
-        <v>24818870000</v>
+        <v>26357840000</v>
       </c>
       <c r="T55" t="n">
-        <v>24411990000</v>
+        <v>25946880000</v>
       </c>
       <c r="U55" t="s"/>
       <c r="V55" t="s"/>
@@ -4442,6 +4449,432 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:29">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" t="n">
+        <v>13020000</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2100500000</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2100500000</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2100500000</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2100500000</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1075290000</v>
+      </c>
+      <c r="P56" t="n">
+        <v>810540000</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3215640000</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4257150000</v>
+      </c>
+      <c r="S56" t="n">
+        <v>24818870000</v>
+      </c>
+      <c r="T56" t="n">
+        <v>24411990000</v>
+      </c>
+      <c r="U56" t="n">
+        <v>46</v>
+      </c>
+      <c r="V56" t="n">
+        <v>23</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>221</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z56" t="s"/>
+      <c r="AA56" t="s"/>
+      <c r="AB56" t="s"/>
+      <c r="AC56" t="s"/>
+    </row>
+    <row r="57" spans="1:29">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" t="n">
+        <v>8180000</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1320170000</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1320170000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1320170000</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1320170000</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>329850000</v>
+      </c>
+      <c r="P57" t="n">
+        <v>158590000</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>109350000</v>
+      </c>
+      <c r="R57" t="n">
+        <v>16141050000</v>
+      </c>
+      <c r="S57" t="n">
+        <v>24818870000</v>
+      </c>
+      <c r="T57" t="n">
+        <v>24411990000</v>
+      </c>
+      <c r="U57" t="n">
+        <v>13</v>
+      </c>
+      <c r="V57" t="n">
+        <v>44</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z57" t="s"/>
+      <c r="AA57" t="s"/>
+      <c r="AB57" t="s"/>
+      <c r="AC57" t="s"/>
+    </row>
+    <row r="58" spans="1:29">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1018300000</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1018300000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1018300000</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1018300000</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>455770000</v>
+      </c>
+      <c r="P58" t="n">
+        <v>288880000</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>20050000</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2300080000</v>
+      </c>
+      <c r="S58" t="n">
+        <v>24818870000</v>
+      </c>
+      <c r="T58" t="n">
+        <v>24411990000</v>
+      </c>
+      <c r="U58" t="n">
+        <v>11</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>5135990000</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>136370470000</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>175270000</v>
+      </c>
+      <c r="I59" t="n">
+        <v>175270000</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>175270000</v>
+      </c>
+      <c r="M59" t="n">
+        <v>175270000</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>148760000</v>
+      </c>
+      <c r="P59" t="n">
+        <v>57280000</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>338150000.0000001</v>
+      </c>
+      <c r="R59" t="n">
+        <v>403890000</v>
+      </c>
+      <c r="S59" t="n">
+        <v>24818870000</v>
+      </c>
+      <c r="T59" t="n">
+        <v>24411990000</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>9</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+      <c r="Z59" t="s"/>
+      <c r="AA59" t="s"/>
+      <c r="AB59" t="s"/>
+      <c r="AC59" t="s"/>
+    </row>
+    <row r="60" spans="1:29">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" t="s"/>
+      <c r="F60" t="s"/>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s"/>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="s"/>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>24818870000</v>
+      </c>
+      <c r="T60" t="n">
+        <v>24411990000</v>
+      </c>
+      <c r="U60" t="s"/>
+      <c r="V60" t="s"/>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="s"/>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="s"/>
+    </row>
+    <row r="61" spans="1:29">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s"/>
+      <c r="F61" t="s"/>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s"/>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="s"/>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>24818870000</v>
+      </c>
+      <c r="T61" t="n">
+        <v>24411990000</v>
+      </c>
+      <c r="U61" t="s"/>
+      <c r="V61" t="s"/>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
